--- a/Flight_Login_1/Default.xlsx
+++ b/Flight_Login_1/Default.xlsx
@@ -14,6 +14,20 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+  <si>
+    <t>$149.00</t>
+  </si>
+  <si>
+    <t>ORDER_enabled</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
@@ -154,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -162,15 +176,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,20 +537,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="1" width="19.23828125" style="1" customWidth="1"/>
-    <col min="2" max="16383" width="9.078125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.0859375" style="1" customWidth="1"/>
+    <col min="3" max="16383" width="9.078125" style="1" customWidth="1"/>
     <col min="16384" max="16384" width="22.60546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" s="2" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4">
+        <v>200</v>
+      </c>
+      <c r="B3" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Flight_Login_1/Default.xlsx
+++ b/Flight_Login_1/Default.xlsx
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
-  <si>
-    <t>$149.00</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>ORDER_enabled</t>
   </si>
@@ -168,36 +165,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -224,23 +197,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -552,26 +516,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.95" s="2" customFormat="1">
-      <c r="A1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4">
-        <v>200</v>
-      </c>
-      <c r="B3" s="5" t="b">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
